--- a/biology/Médecine/Hématémèse/Hématémèse.xlsx
+++ b/biology/Médecine/Hématémèse/Hématémèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mat%C3%A9m%C3%A8se</t>
+          <t>Hématémèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hématémèse est un rejet de sang généralement rouge par la bouche au cours d'un effort de vomissement. Le sang peut être plus ou moins digéré donc plus ou moins noir selon le degré de stase.
 Une hématémèse traduit généralement une hémorragie digestive haute.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mat%C3%A9m%C3%A8se</t>
+          <t>Hématémèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe trois diagnostics différentiels :
 l'hémoptysie (sang d'origine pulmonaire, en particulier bronchique) où le sang est émis lors d'un effort de toux ;
